--- a/PL/teams/[1] Primera entrega/[3] Tercera fase/Tecnología/precios.xlsx
+++ b/PL/teams/[1] Primera entrega/[3] Tercera fase/Tecnología/precios.xlsx
@@ -4678,8 +4678,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010083760B57A9050A41B8ECD167852D12BD" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8132143c76e717270f9d10193ef25fbb">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="101eaf33-1701-464d-baef-164c6127d51f" xmlns:ns3="4c77c7d1-2bb2-481b-aefe-101f32e9588a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b65e1f9a1f5ead05db23d305e45ecaf" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010083760B57A9050A41B8ECD167852D12BD" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="eac238aecdab541038108c888c49e31e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="101eaf33-1701-464d-baef-164c6127d51f" xmlns:ns3="4c77c7d1-2bb2-481b-aefe-101f32e9588a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efe92b1ac631852ba9ae12b231089a75" ns2:_="" ns3:_="">
     <xsd:import namespace="101eaf33-1701-464d-baef-164c6127d51f"/>
     <xsd:import namespace="4c77c7d1-2bb2-481b-aefe-101f32e9588a"/>
     <xsd:element name="properties">
@@ -4698,6 +4698,8 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4771,6 +4773,32 @@
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -4893,7 +4921,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F9A6796-4210-4238-B841-917E37428810}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60860DFD-CE42-4F3B-B408-C60A991BDFE2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
